--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/10/seed4/result_data_KNN.xlsx
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.796</v>
+        <v>-21.853</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.018</v>
+        <v>-22.095</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.07</v>
+        <v>-20.511</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.124</v>
+        <v>-22.01</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.654</v>
+        <v>-21.52</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.49</v>
+        <v>-20.157</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-22.067</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
